--- a/1177 HK Sino.xlsx
+++ b/1177 HK Sino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8549F562-1B04-4C30-B3B4-B962EC47FD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE5C26-505A-464D-B7C8-BD452AF1AF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="720" windowWidth="33330" windowHeight="20340" xr2:uid="{C089106D-B5F9-43C6-9823-948CCFB8CE4F}"/>
+    <workbookView xWindow="-51840" yWindow="1680" windowWidth="22875" windowHeight="18315" activeTab="1" xr2:uid="{C089106D-B5F9-43C6-9823-948CCFB8CE4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Price HKD</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Annike (penpulimab)</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -127,12 +124,75 @@
   </si>
   <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>TQC3721</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>PDE3/4</t>
+  </si>
+  <si>
+    <t>Inhaled</t>
+  </si>
+  <si>
+    <t>TQC2731</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>TSLP mab</t>
+  </si>
+  <si>
+    <t>Yilishu (efbemalenograstim)</t>
+  </si>
+  <si>
+    <t>D-1553</t>
+  </si>
+  <si>
+    <t>KRAS G12C</t>
+  </si>
+  <si>
+    <t>TQB3616</t>
+  </si>
+  <si>
+    <t>CDK2/4/6</t>
+  </si>
+  <si>
+    <t>FS222</t>
+  </si>
+  <si>
+    <t>TDI01</t>
+  </si>
+  <si>
+    <t>TQH2722</t>
+  </si>
+  <si>
+    <t>IL-4Ralpha mab</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>1H24</t>
+  </si>
+  <si>
+    <t>2H24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -254,11 +314,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -277,12 +336,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1D52946F-7923-4931-A464-07D245A93AEF}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,125 +654,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B886C88C-B397-46FB-B3FD-E7AA45139689}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>4.5</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
-        <v>18658.823689000001</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>9</v>
+      <c r="K3" s="10">
+        <v>18408.301708999999</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f>+K2*K3</f>
-        <v>83964.706600500009</v>
+        <v>57802.067366260002</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="11">
-        <f>7768.292+7635.448+6842+4104.383+14814.226</f>
-        <v>41164.349000000002</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>9</v>
+      <c r="K5" s="10">
+        <f>8549.473+4605.526+24.237+9181+4806.73+11835.188+1586.814</f>
+        <v>40588.967999999993</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="3"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="11">
-        <f>4068.753+4313.157+3229.494+84.477</f>
-        <v>11695.881000000001</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>9</v>
+      <c r="K6" s="10">
+        <f>1010.016+8484.591</f>
+        <v>9494.607</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f>+K4-K5+K6</f>
-        <v>54496.238600500008</v>
-      </c>
+        <v>26707.706366260009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -718,252 +867,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB25B3E2-C5C5-4C2E-8D1A-B23F6023BD3F}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="12"/>
+    <col min="3" max="8" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C2" s="12" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14">
+        <v>14353.781000000001</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14">
+        <v>15193.737999999999</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="13">
+        <v>14283.672</v>
+      </c>
+      <c r="K3" s="13">
+        <v>15874.403</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
-        <v>14353.781000000001</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15">
-        <v>15193.737999999999</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>2753.1210000000001</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
+        <v>2959.5990000000002</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10">
+        <f>+I3-I5</f>
+        <v>2599.759</v>
+      </c>
+      <c r="K4" s="10">
+        <f>+K3-K5</f>
+        <v>2844.7800000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
-        <v>2753.1210000000001</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
-        <v>2959.5990000000002</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <f>+E3-E4</f>
         <v>11600.66</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <f>+G3-G4</f>
         <v>12234.138999999999</v>
       </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="10">
+        <v>11683.913</v>
+      </c>
+      <c r="K5" s="10">
+        <v>13029.623</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>5665.4889999999996</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12">
+        <v>5751.55</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>1126.3599999999999</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
+        <v>1182.354</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>1781.597</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12">
+        <v>2048.6039999999998</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>5665.4889999999996</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13">
-        <v>5751.55</v>
-      </c>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>1126.3599999999999</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
-        <v>1182.354</v>
-      </c>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>1781.597</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
-        <v>2048.6039999999998</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f>+E6+E7+E8</f>
         <v>8573.4459999999999</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>+F6+F7+F8</f>
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f>+G6+G7+G8</f>
         <v>8982.5079999999998</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>+H6+H7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="I9" s="12">
+        <f t="shared" ref="I9:K9" si="0">+I6+I7</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12">
         <f>+E5-E9</f>
         <v>3027.2139999999999</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f>+F5-F9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f>+G5-G9</f>
         <v>3251.6309999999994</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f>+H5-H9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="I10" s="12">
+        <f t="shared" ref="I10:K10" si="1">+I5-I9</f>
+        <v>11683.913</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>13029.623</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>-147.22300000000001</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
+        <v>-169.27</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
-        <v>-147.22300000000001</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
-        <v>-169.27</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f>+E10+E11</f>
         <v>2879.991</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f>+F10+F11</f>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f>+G10+G11</f>
         <v>3082.3609999999994</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f>+H10+H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+    <row r="13" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <f>1336.911+1161.264</f>
         <v>2498.1750000000002</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <f>571.391+1262.184</f>
         <v>1833.5749999999998</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12">
         <f>+E12-E13</f>
         <v>381.8159999999998</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f>+F12-F13</f>
         <v>0</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>+G12-G13</f>
         <v>1248.7859999999996</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>+H12-H13</f>
         <v>0</v>
       </c>
